--- a/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
+++ b/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tymeorugiero/Desktop/SAE-3_01/SAE_3_01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\PycharmProjects\SAE-3.01\SAE_3_01\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671686DB-A3C2-B643-8A47-20D21C29440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAEA745-33BA-4AEC-B5E1-1C9EFB77D46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,7 +365,6 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,21 +750,21 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="8.36328125" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +793,7 @@
       </c>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -809,7 +808,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
@@ -833,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -857,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -879,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -892,7 +891,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -900,12 +899,12 @@
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="33" t="s">
+    <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -913,7 +912,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
@@ -921,7 +920,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>15</v>
       </c>
@@ -929,7 +928,7 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>16</v>
       </c>
@@ -937,7 +936,7 @@
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>17</v>
       </c>
@@ -947,7 +946,7 @@
       </c>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
         <v>17</v>
       </c>
@@ -957,7 +956,7 @@
       </c>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="21" t="s">
         <v>17</v>
       </c>
@@ -967,7 +966,7 @@
       </c>
       <c r="D44" s="22"/>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
         <v>17</v>
       </c>
@@ -977,7 +976,7 @@
       </c>
       <c r="D45" s="24"/>
     </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="25" t="s">
         <v>17</v>
       </c>
@@ -987,7 +986,7 @@
       </c>
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="27" t="s">
         <v>17</v>
       </c>
@@ -997,13 +996,13 @@
       </c>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
         <v>17</v>
       </c>
@@ -1013,7 +1012,7 @@
       </c>
       <c r="D49" s="30"/>
     </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
         <v>17</v>
       </c>

--- a/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
+++ b/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
@@ -5,18 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tymeorugiero/Desktop/SAE-3_01/SAE_3_01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chihebbradai/Documents/GitHub/SAE-3.01/SAE_3_01/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671686DB-A3C2-B643-8A47-20D21C29440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD9079B-B838-A241-AE27-4AA65316B441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Ressource</t>
   </si>
@@ -103,9 +114,6 @@
   </si>
   <si>
     <t>R1.L.1</t>
-  </si>
-  <si>
-    <t>Test2</t>
   </si>
 </sst>
 </file>
@@ -273,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,7 +373,6 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,7 +758,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -901,9 +908,7 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">

--- a/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
+++ b/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chihebbradai/Documents/GitHub/SAE-3.01/SAE_3_01/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD9079B-B838-A241-AE27-4AA65316B441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AA161-7F55-9A41-9814-0D3F323E20EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
+    <sheet name="S2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>Ressource</t>
   </si>
@@ -62,9 +63,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>R1.01 Initiation au développement</t>
-  </si>
-  <si>
     <t>Alain Casali</t>
   </si>
   <si>
@@ -114,6 +112,24 @@
   </si>
   <si>
     <t>R1.L.1</t>
+  </si>
+  <si>
+    <t>R1.01</t>
+  </si>
+  <si>
+    <t>R2.02</t>
+  </si>
+  <si>
+    <t>R2.03</t>
+  </si>
+  <si>
+    <t>R2.04</t>
+  </si>
+  <si>
+    <t>R2.05</t>
+  </si>
+  <si>
+    <t>R2.06</t>
   </si>
 </sst>
 </file>
@@ -154,6 +170,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -459,9 +476,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -499,7 +516,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -605,7 +622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -747,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -757,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection sqref="A1:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -803,7 +820,7 @@
     </row>
     <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -819,7 +836,7 @@
     <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -843,7 +860,7 @@
     <row r="4" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -867,7 +884,7 @@
     <row r="5" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -901,18 +918,35 @@
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -920,7 +954,7 @@
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -928,7 +962,7 @@
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -936,7 +970,7 @@
     </row>
     <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -944,61 +978,61 @@
     </row>
     <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="28"/>
       <c r="C47" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D47" s="28"/>
     </row>
@@ -1010,21 +1044,21 @@
     </row>
     <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" s="30"/>
     </row>
     <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D50" s="32"/>
     </row>
@@ -1036,4 +1070,287 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A46A3-1A66-304A-B508-A627F091B519}">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
+      <c r="B8" s="3"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" s="24"/>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="30"/>
+    </row>
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
+++ b/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chihebbradai/Documents/GitHub/SAE-3.01/SAE_3_01/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7AA161-7F55-9A41-9814-0D3F323E20EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA8F044-B96D-5547-BBEC-0CD0DD151366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Ressource</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>R2.06</t>
+  </si>
+  <si>
+    <t>IIIIII</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1215,7 +1218,9 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="F8">
         <v>1</v>
       </c>

--- a/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
+++ b/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chihebbradai/Documents/GitHub/SAE-3.01/SAE_3_01/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA8F044-B96D-5547-BBEC-0CD0DD151366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1167955-06A5-8F44-9A73-8531110D928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
+++ b/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chihebbradai/Documents/GitHub/SAE-3.01/SAE_3_01/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1167955-06A5-8F44-9A73-8531110D928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210DB49-C8D9-2345-8CD6-5B7479F0FEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="S1" sheetId="1" r:id="rId1"/>
     <sheet name="S2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Ressource</t>
   </si>
@@ -133,6 +133,30 @@
   </si>
   <si>
     <t>IIIIII</t>
+  </si>
+  <si>
+    <t>Alain mais pas casali</t>
+  </si>
+  <si>
+    <t>Morancey mais pas vraiment morancey</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>un nom de prof qui est pas trop sensible</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
+  </si>
+  <si>
+    <t>R2.01</t>
   </si>
 </sst>
 </file>
@@ -778,7 +802,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection sqref="A1:J50"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -848,7 +872,7 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -955,7 +979,27 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>13</v>
       </c>
@@ -963,13 +1007,33 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
@@ -1080,7 +1144,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1115,7 +1179,7 @@
     </row>
     <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1245,7 +1309,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
@@ -1253,7 +1317,27 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>29</v>
       </c>
@@ -1261,7 +1345,27 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1373,47 @@
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1423,7 @@
       </c>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>16</v>
       </c>
@@ -1289,7 +1433,7 @@
       </c>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +1443,7 @@
       </c>
       <c r="D44" s="22"/>
     </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1453,7 @@
       </c>
       <c r="D45" s="24"/>
     </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>16</v>
       </c>
@@ -1319,7 +1463,7 @@
       </c>
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1473,7 @@
       </c>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>

--- a/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
+++ b/SAE_3_01/Documents/QuiFaitQuoi_beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chihebbradai/Documents/GitHub/SAE-3.01/SAE_3_01/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5210DB49-C8D9-2345-8CD6-5B7479F0FEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C70AE5D-6D9E-014A-AD26-40006848FC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Ressource</t>
   </si>
@@ -132,31 +132,34 @@
     <t>R2.06</t>
   </si>
   <si>
-    <t>IIIIII</t>
-  </si>
-  <si>
-    <t>Alain mais pas casali</t>
-  </si>
-  <si>
-    <t>Morancey mais pas vraiment morancey</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>un nom de prof qui est pas trop sensible</t>
-  </si>
-  <si>
-    <t>github</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test </t>
-  </si>
-  <si>
     <t>R2.01</t>
+  </si>
+  <si>
+    <t>Morgan casali</t>
+  </si>
+  <si>
+    <t>Safa Jouini</t>
+  </si>
+  <si>
+    <t>Lotfi Jouini</t>
+  </si>
+  <si>
+    <t>Lucile Maksoud</t>
+  </si>
+  <si>
+    <t>Christian Lakhal</t>
+  </si>
+  <si>
+    <t>Moundir Boix</t>
+  </si>
+  <si>
+    <t>Alain Pioct</t>
+  </si>
+  <si>
+    <t>Lucas Morancey</t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -872,7 +875,7 @@
         <v>0.5</v>
       </c>
       <c r="G3" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -953,7 +956,7 @@
     </row>
     <row r="8" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -981,7 +984,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1007,6 +1010,11 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>14</v>
@@ -1017,7 +1025,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1143,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A46A3-1A66-304A-B508-A627F091B519}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1179,7 +1187,7 @@
     </row>
     <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1283,7 +1291,7 @@
     </row>
     <row r="8" spans="1:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1309,6 +1317,11 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>28</v>
@@ -1319,7 +1332,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1347,10 +1360,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1365,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>30</v>
       </c>
@@ -1373,47 +1386,7 @@
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="J36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>16</v>
       </c>
@@ -1423,7 +1396,7 @@
       </c>
       <c r="D42" s="18"/>
     </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>16</v>
       </c>
@@ -1433,7 +1406,7 @@
       </c>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>16</v>
       </c>
@@ -1443,7 +1416,7 @@
       </c>
       <c r="D44" s="22"/>
     </row>
-    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
         <v>16</v>
       </c>
@@ -1453,7 +1426,7 @@
       </c>
       <c r="D45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>16</v>
       </c>
@@ -1463,7 +1436,7 @@
       </c>
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
         <v>16</v>
       </c>
@@ -1473,7 +1446,7 @@
       </c>
       <c r="D47" s="28"/>
     </row>
-    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
